--- a/SMYDATA Sprint v2.xlsx
+++ b/SMYDATA Sprint v2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="225">
   <si>
     <t>SL.NO</t>
   </si>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>done</t>
-  </si>
-  <si>
-    <t>Wip</t>
   </si>
   <si>
     <t>Invoice As Per GST</t>
@@ -1361,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2017,7 +2014,7 @@
         <v>43188</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="48" t="s">
@@ -2217,7 +2214,7 @@
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="21"/>
@@ -3700,13 +3697,13 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -3763,7 +3760,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21">
       <c r="A1" s="60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3814,16 +3811,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>194</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26">
@@ -3842,13 +3839,13 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -3868,7 +3865,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>35</v>
@@ -3914,7 +3911,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>6</v>
@@ -3969,16 +3966,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -3995,13 +3992,13 @@
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>182</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -4021,7 +4018,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>35</v>
@@ -4067,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>6</v>
@@ -4124,16 +4121,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="58">
@@ -4152,13 +4149,13 @@
       </c>
       <c r="B18" s="58"/>
       <c r="C18" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>182</v>
       </c>
       <c r="E18" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
@@ -4178,7 +4175,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>35</v>
@@ -4224,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>6</v>
@@ -4279,16 +4276,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
@@ -4305,13 +4302,13 @@
       </c>
       <c r="B25" s="58"/>
       <c r="C25" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>182</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="58"/>
@@ -4331,7 +4328,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="58" t="s">
         <v>35</v>
@@ -4377,7 +4374,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="58" t="s">
         <v>6</v>
@@ -4449,16 +4446,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49">
@@ -4477,13 +4474,13 @@
       </c>
       <c r="B33" s="49"/>
       <c r="C33" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>182</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
@@ -4503,7 +4500,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>35</v>
@@ -4549,7 +4546,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="49" t="s">
         <v>6</v>
@@ -4604,16 +4601,16 @@
         <v>37</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39" s="49"/>
       <c r="G39" s="49"/>
@@ -4630,13 +4627,13 @@
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>182</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="49"/>
       <c r="G40" s="49"/>
@@ -4656,7 +4653,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>35</v>
@@ -4702,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>6</v>
@@ -4757,16 +4754,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
@@ -4783,13 +4780,13 @@
       </c>
       <c r="B47" s="53"/>
       <c r="C47" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="53" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
@@ -4809,7 +4806,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E48" s="53" t="s">
         <v>35</v>
@@ -4855,7 +4852,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>6</v>
@@ -4912,16 +4909,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F53" s="51"/>
       <c r="G53" s="51">
@@ -4940,13 +4937,13 @@
       </c>
       <c r="B54" s="51"/>
       <c r="C54" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D54" s="51" t="s">
         <v>182</v>
       </c>
       <c r="E54" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
@@ -4966,7 +4963,7 @@
         <v>47</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E55" s="51" t="s">
         <v>35</v>
@@ -5012,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57" s="51" t="s">
         <v>6</v>
@@ -5067,16 +5064,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
@@ -5093,13 +5090,13 @@
       </c>
       <c r="B61" s="51"/>
       <c r="C61" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>182</v>
       </c>
       <c r="E61" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F61" s="51"/>
       <c r="G61" s="51"/>
@@ -5119,7 +5116,7 @@
         <v>47</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E62" s="51" t="s">
         <v>35</v>
@@ -5165,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="51" t="s">
         <v>6</v>
@@ -5212,16 +5209,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D67" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F67" s="55"/>
       <c r="G67" s="55">
@@ -5240,13 +5237,13 @@
       </c>
       <c r="B68" s="55"/>
       <c r="C68" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68" s="55" t="s">
         <v>182</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F68" s="55"/>
       <c r="G68" s="55"/>
@@ -5266,7 +5263,7 @@
         <v>47</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>35</v>
@@ -5312,7 +5309,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E71" s="55" t="s">
         <v>6</v>
@@ -5352,16 +5349,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="55" t="s">
         <v>15</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F73" s="55"/>
       <c r="G73" s="55"/>
@@ -5378,13 +5375,13 @@
       </c>
       <c r="B74" s="55"/>
       <c r="C74" s="55" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="55" t="s">
         <v>182</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F74" s="55"/>
       <c r="G74" s="55"/>
@@ -5404,7 +5401,7 @@
         <v>47</v>
       </c>
       <c r="D75" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="55" t="s">
         <v>35</v>
@@ -5450,7 +5447,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E77" s="55" t="s">
         <v>6</v>

--- a/SMYDATA Sprint v2.xlsx
+++ b/SMYDATA Sprint v2.xlsx
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:J31"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="12" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="K37" s="12"/>
       <c r="L37" s="21"/>

--- a/SMYDATA Sprint v2.xlsx
+++ b/SMYDATA Sprint v2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint - 1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="246">
   <si>
     <t>SL.NO</t>
   </si>
@@ -736,12 +736,77 @@
   <si>
     <t>Functional/ TechDiscussion On Invoice Asper GST</t>
   </si>
+  <si>
+    <t>Mobile and email validation -UI</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>validation of Id proof -Java and UI</t>
+  </si>
+  <si>
+    <t>Upload document -Java &amp; UI</t>
+  </si>
+  <si>
+    <t>lattitude &amp; langitude capture -UI</t>
+  </si>
+  <si>
+    <t>Dilip &amp; Parthiya</t>
+  </si>
+  <si>
+    <t>My Information</t>
+  </si>
+  <si>
+    <t>In business edit info
+ make company name,mobile number,password(hide) and email read only</t>
+  </si>
+  <si>
+    <t>Refer BRD</t>
+  </si>
+  <si>
+    <t>Registration/Payables/Receivables</t>
+  </si>
+  <si>
+    <t>My Business plan --&gt; Invoice</t>
+  </si>
+  <si>
+    <t>Display Templates</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>When we disable My Rewards data can't be editable</t>
+  </si>
+  <si>
+    <t>Amount size text box should be larger</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>When we disabe discounts,data can't be editabe for individual as well </t>
+  </si>
+  <si>
+    <t>My products discounts enable value not sending to backend</t>
+  </si>
+  <si>
+    <t>End date should not be older than start date (validation)</t>
+  </si>
+  <si>
+    <t>For single business directly display my info,
+ if there are multiple businesses then display as a list</t>
+  </si>
+  <si>
+    <t>Top customers list</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +872,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -979,7 +1050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1062,12 +1133,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1146,6 +1227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1180,6 +1262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1355,14 +1438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36:J37"/>
+    <sheetView topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
@@ -1379,7 +1462,7 @@
     <col min="14" max="14" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1478,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1463,7 +1546,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1491,7 +1574,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1519,7 +1602,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1547,7 +1630,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1575,7 +1658,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1597,7 +1680,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1613,7 +1696,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1643,7 +1726,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1671,7 +1754,7 @@
       <c r="K11" s="15"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1699,7 +1782,7 @@
       <c r="K12" s="15"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1727,7 +1810,7 @@
       <c r="K13" s="15"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1755,7 +1838,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1771,7 +1854,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1799,7 +1882,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1827,7 +1910,7 @@
       <c r="K17" s="13"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1855,7 +1938,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1883,7 +1966,7 @@
       <c r="K19" s="13"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1911,7 +1994,7 @@
       <c r="K20" s="13"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1927,7 +2010,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1959,7 +2042,7 @@
       <c r="K22" s="12"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1989,7 +2072,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2021,7 +2104,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2049,7 +2132,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2077,7 +2160,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2101,7 +2184,7 @@
       <c r="K27" s="12"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2131,7 +2214,7 @@
       <c r="K28" s="12"/>
       <c r="L28" s="48"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2161,7 +2244,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2191,7 +2274,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2219,7 +2302,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2247,7 +2330,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2263,7 +2346,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2295,7 +2378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2325,7 +2408,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="21"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2353,7 +2436,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="21"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2381,7 +2464,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2409,7 +2492,7 @@
       <c r="K38" s="12"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2439,28 +2522,28 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
   </sheetData>
@@ -2473,14 +2556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
@@ -2489,7 +2572,7 @@
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +2582,7 @@
       <c r="E1" s="61"/>
       <c r="F1" s="61"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -2531,7 +2614,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -2541,7 +2624,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2549,7 +2632,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -2563,7 +2646,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2571,7 +2654,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -2583,7 +2666,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2591,7 +2674,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -2603,7 +2686,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2611,7 +2694,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -2623,7 +2706,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2631,7 +2714,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2639,7 +2722,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2647,7 +2730,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2664,24 +2747,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2719,7 +2802,7 @@
       </c>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2737,7 +2820,7 @@
       </c>
       <c r="F3" s="34"/>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2760,7 +2843,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2781,7 +2864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2804,7 +2887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2822,7 +2905,7 @@
       </c>
       <c r="F7" s="37"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2841,7 +2924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2849,7 +2932,7 @@
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2865,7 +2948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2873,7 +2956,7 @@
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2891,7 +2974,7 @@
       </c>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2899,7 +2982,7 @@
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2907,7 +2990,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -2917,7 +3000,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2925,76 +3008,268 @@
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="45">
+        <v>43240</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="45">
+        <v>43241</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="62">
+        <v>8</v>
+      </c>
+      <c r="B24" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="62">
+        <v>9</v>
+      </c>
+      <c r="B25" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="62">
+        <v>10</v>
+      </c>
+      <c r="B26" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="62">
+        <v>11</v>
+      </c>
+      <c r="B27" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="62">
+        <v>12</v>
+      </c>
+      <c r="B28" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="62">
+        <v>13</v>
+      </c>
+      <c r="B29" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="62">
+        <v>14</v>
+      </c>
+      <c r="B30" s="63">
+        <v>43241</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
@@ -3002,7 +3277,7 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>71</v>
       </c>
@@ -3013,7 +3288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
@@ -3022,47 +3297,47 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
@@ -3071,14 +3346,14 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
@@ -3089,7 +3364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>61</v>
@@ -3098,12 +3373,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
@@ -3114,14 +3389,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>64</v>
@@ -3130,35 +3405,35 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>69</v>
@@ -3171,14 +3446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
@@ -3188,7 +3463,7 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>149</v>
       </c>
@@ -3202,7 +3477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3216,7 +3491,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
@@ -3226,7 +3501,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34" t="s">
@@ -3234,13 +3509,13 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34" t="s">
@@ -3250,7 +3525,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -3259,7 +3534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -3273,19 +3548,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -3297,7 +3572,7 @@
       </c>
       <c r="D11" s="34"/>
     </row>
-    <row r="12" spans="1:6" ht="23.25" customHeight="1">
+    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34" t="s">
@@ -3305,37 +3580,37 @@
       </c>
       <c r="D12" s="34"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3348,14 +3623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -3364,7 +3639,7 @@
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>149</v>
       </c>
@@ -3381,7 +3656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3392,14 +3667,14 @@
       <c r="D2" s="34"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3410,98 +3685,98 @@
       <c r="D4" s="34"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3514,14 +3789,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
@@ -3531,7 +3806,7 @@
     <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>168</v>
       </c>
@@ -3542,7 +3817,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>154</v>
@@ -3551,7 +3826,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>155</v>
@@ -3560,7 +3835,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>158</v>
@@ -3569,7 +3844,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>159</v>
@@ -3578,7 +3853,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
         <v>169</v>
       </c>
@@ -3589,7 +3864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
         <v>170</v>
       </c>
@@ -3600,7 +3875,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>166</v>
@@ -3609,7 +3884,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>167</v>
@@ -3618,7 +3893,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>165</v>
@@ -3627,7 +3902,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>158</v>
@@ -3636,7 +3911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="42" t="s">
         <v>94</v>
       </c>
@@ -3647,7 +3922,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>179</v>
       </c>
@@ -3658,12 +3933,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="45" t="s">
         <v>180</v>
       </c>
@@ -3674,12 +3949,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="45" t="s">
         <v>181</v>
       </c>
@@ -3690,12 +3965,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="45" t="s">
         <v>223</v>
       </c>
@@ -3706,12 +3981,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3722,28 +3997,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
@@ -3758,7 +4033,7 @@
     <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>222</v>
       </c>
@@ -3773,7 +4048,7 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3806,7 +4081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3833,7 +4108,7 @@
       </c>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3856,7 +4131,7 @@
       </c>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3879,7 +4154,7 @@
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3902,7 +4177,7 @@
       </c>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3925,7 +4200,7 @@
       </c>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3946,7 +4221,7 @@
       </c>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3961,7 +4236,7 @@
       <c r="J9" s="26"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3986,7 +4261,7 @@
       </c>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4009,7 +4284,7 @@
       </c>
       <c r="K11" s="28"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4032,7 +4307,7 @@
       </c>
       <c r="K12" s="28"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4055,7 +4330,7 @@
       </c>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4080,7 +4355,7 @@
       </c>
       <c r="K14" s="28"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4101,7 +4376,7 @@
       </c>
       <c r="K15" s="28"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4116,7 +4391,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4143,7 +4418,7 @@
       </c>
       <c r="K17" s="59"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4166,7 +4441,7 @@
       </c>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4189,7 +4464,7 @@
       </c>
       <c r="K19" s="59"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4212,7 +4487,7 @@
       </c>
       <c r="K20" s="59"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4235,7 +4510,7 @@
       </c>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4256,7 +4531,7 @@
       </c>
       <c r="K22" s="59"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4271,7 +4546,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4296,7 +4571,7 @@
       </c>
       <c r="K24" s="59"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4319,7 +4594,7 @@
       </c>
       <c r="K25" s="59"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4342,7 +4617,7 @@
       </c>
       <c r="K26" s="59"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4365,7 +4640,7 @@
       </c>
       <c r="K27" s="59"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4390,7 +4665,7 @@
       </c>
       <c r="K28" s="59"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4411,7 +4686,7 @@
       </c>
       <c r="K29" s="59"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4426,7 +4701,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4441,7 +4716,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4468,7 +4743,7 @@
       </c>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4491,7 +4766,7 @@
       </c>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4514,7 +4789,7 @@
       </c>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4537,7 +4812,7 @@
       </c>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4560,7 +4835,7 @@
       </c>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4581,7 +4856,7 @@
       </c>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4596,7 +4871,7 @@
       <c r="J38" s="49"/>
       <c r="K38" s="50"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4621,7 +4896,7 @@
       </c>
       <c r="K39" s="50"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4644,7 +4919,7 @@
       </c>
       <c r="K40" s="50"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4667,7 +4942,7 @@
       </c>
       <c r="K41" s="50"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4690,7 +4965,7 @@
       </c>
       <c r="K42" s="50"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4713,7 +4988,7 @@
       </c>
       <c r="K43" s="50"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4734,7 +5009,7 @@
       </c>
       <c r="K44" s="50"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4749,7 +5024,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4774,7 +5049,7 @@
       </c>
       <c r="K46" s="31"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4797,7 +5072,7 @@
       </c>
       <c r="K47" s="31"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4820,7 +5095,7 @@
       </c>
       <c r="K48" s="31"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4843,7 +5118,7 @@
       </c>
       <c r="K49" s="31"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4866,7 +5141,7 @@
       </c>
       <c r="K50" s="31"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4889,7 +5164,7 @@
       </c>
       <c r="K51" s="31"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4904,7 +5179,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4931,7 +5206,7 @@
       </c>
       <c r="K53" s="52"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4954,7 +5229,7 @@
       </c>
       <c r="K54" s="52"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4977,7 +5252,7 @@
       </c>
       <c r="K55" s="52"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5000,7 +5275,7 @@
       </c>
       <c r="K56" s="52"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5023,7 +5298,7 @@
       </c>
       <c r="K57" s="52"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5044,7 +5319,7 @@
       </c>
       <c r="K58" s="52"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5059,7 +5334,7 @@
       <c r="J59" s="51"/>
       <c r="K59" s="52"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5084,7 +5359,7 @@
       </c>
       <c r="K60" s="52"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5107,7 +5382,7 @@
       </c>
       <c r="K61" s="52"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5130,7 +5405,7 @@
       </c>
       <c r="K62" s="52"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5153,7 +5428,7 @@
       </c>
       <c r="K63" s="52"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5176,7 +5451,7 @@
       </c>
       <c r="K64" s="52"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5199,12 +5474,12 @@
       </c>
       <c r="K65" s="52"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5231,7 +5506,7 @@
       </c>
       <c r="K67" s="57"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5254,7 +5529,7 @@
       </c>
       <c r="K68" s="57"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5277,7 +5552,7 @@
       </c>
       <c r="K69" s="57"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5300,7 +5575,7 @@
       </c>
       <c r="K70" s="57"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5323,7 +5598,7 @@
       </c>
       <c r="K71" s="57"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5344,7 +5619,7 @@
       </c>
       <c r="K72" s="57"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5369,7 +5644,7 @@
       </c>
       <c r="K73" s="57"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5392,7 +5667,7 @@
       </c>
       <c r="K74" s="57"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5415,7 +5690,7 @@
       </c>
       <c r="K75" s="57"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5438,7 +5713,7 @@
       </c>
       <c r="K76" s="57"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5461,7 +5736,7 @@
       </c>
       <c r="K77" s="57"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>

--- a/SMYDATA Sprint v2.xlsx
+++ b/SMYDATA Sprint v2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="249">
   <si>
     <t>SL.NO</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t>Top customers list</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>user Rewards update and discounts apply issue</t>
+  </si>
+  <si>
+    <t>Parthiya(Completed)</t>
   </si>
 </sst>
 </file>
@@ -1127,17 +1136,17 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1463,20 +1472,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2573,14 +2582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2748,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,16 +3146,16 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="60">
         <v>8</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="61">
         <v>43241</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="62" t="s">
         <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3154,16 +3163,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="60">
         <v>9</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="61">
         <v>43241</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="62" t="s">
         <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3171,16 +3180,16 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="60">
         <v>10</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="61">
         <v>43241</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="62" t="s">
         <v>241</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3188,16 +3197,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="60">
         <v>11</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="61">
         <v>43241</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="62" t="s">
         <v>239</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3205,16 +3214,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="60">
         <v>12</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="61">
         <v>43241</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="62" t="s">
         <v>242</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3222,16 +3231,16 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="60">
         <v>13</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="61">
         <v>43241</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="62" t="s">
         <v>243</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3239,20 +3248,37 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="60">
         <v>14</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="61">
         <v>43241</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>245</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>15</v>
+      </c>
+      <c r="B31" s="61">
+        <v>43241</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4034,19 +4060,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
